--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Racce3378aa234d85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R6674e296c10a48b9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R6674e296c10a48b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rbf7ae8a126e04c6d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,13 +27,13 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="18"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -46,7 +46,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="E7E6E6"/>
+        <x:fgColor rgb="FFE7E6E6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rbf7ae8a126e04c6d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R8413f42ff8ac4975"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R8413f42ff8ac4975"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R02dc7ef3222e45af"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R02dc7ef3222e45af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R2f7576914e814eab"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R2f7576914e814eab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R2eaece3e877e4348"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R2eaece3e877e4348"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rbfac36f4fc13482d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rbfac36f4fc13482d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R05d8beebcf5945ca"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R05d8beebcf5945ca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rfb3486b0da8741aa"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rfb3486b0da8741aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rcb662a9a6ee24dde"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rcb662a9a6ee24dde"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R8c84c3d4ea3247e4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R8c84c3d4ea3247e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc1a19997afb04b1b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc1a19997afb04b1b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R9c7c8b12d70143b3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R9c7c8b12d70143b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rdc249305f8f54420"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rdc249305f8f54420"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R0adbaab01d684dde"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R0adbaab01d684dde"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rfea378786eb0433c"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rfea378786eb0433c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R64f6f028fb4347e5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R64f6f028fb4347e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Ra0b5bdc6882f4c1f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Ra0b5bdc6882f4c1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R34b2dd92451c4a69"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R34b2dd92451c4a69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R369afebd832d47ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R369afebd832d47ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rccee7ff415c64ec8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rccee7ff415c64ec8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R12248c7a86394845"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R12248c7a86394845"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Re7030c146c6c4284"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Re7030c146c6c4284"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R9b9d3055ac164c04"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R9b9d3055ac164c04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rbaa37177be88432b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rbaa37177be88432b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R7fbbb16b7342453b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R7fbbb16b7342453b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R17f07854efd74007"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R17f07854efd74007"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R3c1107bf0d6e40a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R3c1107bf0d6e40a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R3f4dd46b1dc1459c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R3f4dd46b1dc1459c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R9159be66ebe74d67"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R9159be66ebe74d67"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R53d8a19928ea429d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R53d8a19928ea429d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rebe6cec54419490e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rebe6cec54419490e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R905d29c8462d49a4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R905d29c8462d49a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Raa5bfa6cf1984bc1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Raa5bfa6cf1984bc1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R4bc017ceae3c427e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R4bc017ceae3c427e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Re2e8b42ddb764ea9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Re2e8b42ddb764ea9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R010c1eb00bf5473c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R010c1eb00bf5473c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc067cefceef7436d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc067cefceef7436d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R20c7f55be4634268"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="R20c7f55be4634268"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rd2c8dfa70c0a41e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rd2c8dfa70c0a41e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc9ebb4cfbb0e43ae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Rc9ebb4cfbb0e43ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Ra5dbe05debea4b2b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/31_RowHeight.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Ra5dbe05debea4b2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RowHeights" sheetId="1" r:id="Raedb98937a0e414d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
